--- a/Table_vacancies.xlsx
+++ b/Table_vacancies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfraga\neuroling.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5F5030-3B3C-4AF0-99B5-1D4BDD6888D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FE6F80-82BE-47BE-9DFE-04198D995547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6810" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,11 @@
     <t>Master Thesis Opportunity!</t>
   </si>
   <si>
-    <t xml:space="preserve"> *Machine Learning, EEG Neurofeedback and Speech-in-Noise Comprehension*                   
+    <t>…</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> *Machine Learning, EEG Neurofeedback and Speech-in-Noise Comprehension*                   
  Reduced speech comprehension due to hearing impairments which can have dramatic consequences for quality of life.
  Our project aims at gaining fundamental knowledge on the neurocognitive basis of our ability to comprehend degraded speech in acoustically challenging situations. 
  We will use **electroencephalography** (EEG) and **machine learning** **decoding** to investigate patterns of brain activity associated with better speech in noise comprehension.
@@ -44,11 +48,30 @@
  - We offer hands-on experience collecting high-quality electrophysiological data and applying advanced signal processing and analysis techniques.     
  - Number of theses on this project: 2-3                                                                                           
  - Starting date negotiable 
- For more details, contact Dr. Gorka Fraga-Gonzalez, gorka.fragagonzalez[at]uzh[punkt]ch   
+ For more details, contact Dr. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gorka Fraga-Gonzalez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, gorka.fragagonzalez[at]uzh[punkt]ch   
  </t>
-  </si>
-  <si>
-    <t>…</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -95,12 +118,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +407,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,27 +417,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
